--- a/Audit.xlsx
+++ b/Audit.xlsx
@@ -1311,7 +1311,7 @@
     <xf numFmtId="0" fontId="1"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
       <alignment horizontal="center"/>
@@ -7731,204 +7731,204 @@
   </sheetData>
   <autoFilter ref="A1:J1"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="A15" r:id="rId14"/>
-    <hyperlink ref="A16" r:id="rId15"/>
-    <hyperlink ref="A17" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
-    <hyperlink ref="A20" r:id="rId19"/>
-    <hyperlink ref="A21" r:id="rId20"/>
-    <hyperlink ref="A22" r:id="rId21"/>
-    <hyperlink ref="A23" r:id="rId22"/>
-    <hyperlink ref="A24" r:id="rId23"/>
-    <hyperlink ref="A25" r:id="rId24"/>
-    <hyperlink ref="A26" r:id="rId25"/>
-    <hyperlink ref="A27" r:id="rId26"/>
-    <hyperlink ref="A28" r:id="rId27"/>
-    <hyperlink ref="A29" r:id="rId28"/>
-    <hyperlink ref="A30" r:id="rId29"/>
-    <hyperlink ref="A31" r:id="rId30"/>
-    <hyperlink ref="A32" r:id="rId31"/>
-    <hyperlink ref="A33" r:id="rId32"/>
-    <hyperlink ref="A34" r:id="rId33"/>
-    <hyperlink ref="A35" r:id="rId34"/>
-    <hyperlink ref="A36" r:id="rId35"/>
-    <hyperlink ref="A37" r:id="rId36"/>
-    <hyperlink ref="A38" r:id="rId37"/>
-    <hyperlink ref="A39" r:id="rId38"/>
-    <hyperlink ref="A40" r:id="rId39"/>
-    <hyperlink ref="A41" r:id="rId40"/>
-    <hyperlink ref="A42" r:id="rId41"/>
-    <hyperlink ref="A43" r:id="rId42"/>
-    <hyperlink ref="A44" r:id="rId43"/>
-    <hyperlink ref="A45" r:id="rId44"/>
-    <hyperlink ref="A46" r:id="rId45"/>
-    <hyperlink ref="A47" r:id="rId46"/>
-    <hyperlink ref="A48" r:id="rId47"/>
-    <hyperlink ref="A49" r:id="rId48"/>
-    <hyperlink ref="A50" r:id="rId49"/>
-    <hyperlink ref="A51" r:id="rId50"/>
-    <hyperlink ref="A52" r:id="rId51"/>
-    <hyperlink ref="A53" r:id="rId52"/>
-    <hyperlink ref="A54" r:id="rId53"/>
-    <hyperlink ref="A55" r:id="rId54"/>
-    <hyperlink ref="A56" r:id="rId55"/>
-    <hyperlink ref="A57" r:id="rId56"/>
-    <hyperlink ref="A58" r:id="rId57"/>
-    <hyperlink ref="A59" r:id="rId58"/>
-    <hyperlink ref="A60" r:id="rId59"/>
-    <hyperlink ref="A61" r:id="rId60"/>
-    <hyperlink ref="A62" r:id="rId61"/>
-    <hyperlink ref="A63" r:id="rId62"/>
-    <hyperlink ref="A64" r:id="rId63"/>
-    <hyperlink ref="A65" r:id="rId64"/>
-    <hyperlink ref="A66" r:id="rId65"/>
-    <hyperlink ref="A67" r:id="rId66"/>
-    <hyperlink ref="A68" r:id="rId67"/>
-    <hyperlink ref="A69" r:id="rId68"/>
-    <hyperlink ref="A70" r:id="rId69"/>
-    <hyperlink ref="A71" r:id="rId70"/>
-    <hyperlink ref="A72" r:id="rId71"/>
-    <hyperlink ref="A73" r:id="rId72"/>
-    <hyperlink ref="A74" r:id="rId73"/>
-    <hyperlink ref="A75" r:id="rId74"/>
-    <hyperlink ref="A76" r:id="rId75"/>
-    <hyperlink ref="A77" r:id="rId76"/>
-    <hyperlink ref="A78" r:id="rId77"/>
-    <hyperlink ref="A79" r:id="rId78"/>
-    <hyperlink ref="A80" r:id="rId79"/>
-    <hyperlink ref="A81" r:id="rId80"/>
-    <hyperlink ref="A82" r:id="rId81"/>
-    <hyperlink ref="A83" r:id="rId82"/>
-    <hyperlink ref="A84" r:id="rId83"/>
-    <hyperlink ref="A85" r:id="rId84"/>
-    <hyperlink ref="A86" r:id="rId85"/>
-    <hyperlink ref="A87" r:id="rId86"/>
-    <hyperlink ref="A88" r:id="rId87"/>
-    <hyperlink ref="A89" r:id="rId88"/>
-    <hyperlink ref="A90" r:id="rId89"/>
-    <hyperlink ref="A91" r:id="rId90"/>
-    <hyperlink ref="A92" r:id="rId91"/>
-    <hyperlink ref="A93" r:id="rId92"/>
-    <hyperlink ref="A94" r:id="rId93"/>
-    <hyperlink ref="A95" r:id="rId94"/>
-    <hyperlink ref="A96" r:id="rId95"/>
-    <hyperlink ref="A97" r:id="rId96"/>
-    <hyperlink ref="A98" r:id="rId97"/>
-    <hyperlink ref="A99" r:id="rId98"/>
-    <hyperlink ref="A100" r:id="rId99"/>
-    <hyperlink ref="A101" r:id="rId100"/>
-    <hyperlink ref="A102" r:id="rId101"/>
-    <hyperlink ref="A103" r:id="rId102"/>
-    <hyperlink ref="A104" r:id="rId103"/>
-    <hyperlink ref="A105" r:id="rId104"/>
-    <hyperlink ref="A106" r:id="rId105"/>
-    <hyperlink ref="A107" r:id="rId106"/>
-    <hyperlink ref="A108" r:id="rId107"/>
-    <hyperlink ref="A109" r:id="rId108"/>
-    <hyperlink ref="A110" r:id="rId109"/>
-    <hyperlink ref="A111" r:id="rId110"/>
-    <hyperlink ref="A112" r:id="rId111"/>
-    <hyperlink ref="A113" r:id="rId112"/>
-    <hyperlink ref="A114" r:id="rId113"/>
-    <hyperlink ref="A115" r:id="rId114"/>
-    <hyperlink ref="A116" r:id="rId115"/>
-    <hyperlink ref="A117" r:id="rId116"/>
-    <hyperlink ref="A118" r:id="rId117"/>
-    <hyperlink ref="A119" r:id="rId118"/>
-    <hyperlink ref="A120" r:id="rId119"/>
-    <hyperlink ref="A121" r:id="rId120"/>
-    <hyperlink ref="A122" r:id="rId121"/>
-    <hyperlink ref="A123" r:id="rId122"/>
-    <hyperlink ref="A124" r:id="rId123"/>
-    <hyperlink ref="A125" r:id="rId124"/>
-    <hyperlink ref="A126" r:id="rId125"/>
-    <hyperlink ref="A127" r:id="rId126"/>
-    <hyperlink ref="A128" r:id="rId127"/>
-    <hyperlink ref="A129" r:id="rId128"/>
-    <hyperlink ref="A130" r:id="rId129"/>
-    <hyperlink ref="A131" r:id="rId130"/>
-    <hyperlink ref="A132" r:id="rId131"/>
-    <hyperlink ref="A133" r:id="rId132"/>
-    <hyperlink ref="A134" r:id="rId133"/>
-    <hyperlink ref="A135" r:id="rId134"/>
-    <hyperlink ref="A136" r:id="rId135"/>
-    <hyperlink ref="A137" r:id="rId136"/>
-    <hyperlink ref="A138" r:id="rId137"/>
-    <hyperlink ref="A139" r:id="rId138"/>
-    <hyperlink ref="A140" r:id="rId139"/>
-    <hyperlink ref="A141" r:id="rId140"/>
-    <hyperlink ref="A142" r:id="rId141"/>
-    <hyperlink ref="A143" r:id="rId142"/>
-    <hyperlink ref="A144" r:id="rId143"/>
-    <hyperlink ref="A145" r:id="rId144"/>
-    <hyperlink ref="A146" r:id="rId145"/>
-    <hyperlink ref="A147" r:id="rId146"/>
-    <hyperlink ref="A148" r:id="rId147"/>
-    <hyperlink ref="A149" r:id="rId148"/>
-    <hyperlink ref="A150" r:id="rId149"/>
-    <hyperlink ref="A151" r:id="rId150"/>
-    <hyperlink ref="A152" r:id="rId151"/>
-    <hyperlink ref="A153" r:id="rId152"/>
-    <hyperlink ref="A154" r:id="rId153"/>
-    <hyperlink ref="A155" r:id="rId154"/>
-    <hyperlink ref="A156" r:id="rId155"/>
-    <hyperlink ref="A157" r:id="rId156"/>
-    <hyperlink ref="A158" r:id="rId157"/>
-    <hyperlink ref="A159" r:id="rId158"/>
-    <hyperlink ref="A160" r:id="rId159"/>
-    <hyperlink ref="A161" r:id="rId160"/>
-    <hyperlink ref="A162" r:id="rId161"/>
-    <hyperlink ref="A163" r:id="rId162"/>
-    <hyperlink ref="A164" r:id="rId163"/>
-    <hyperlink ref="A165" r:id="rId164"/>
-    <hyperlink ref="A166" r:id="rId165"/>
-    <hyperlink ref="A167" r:id="rId166"/>
-    <hyperlink ref="A168" r:id="rId167"/>
-    <hyperlink ref="A169" r:id="rId168"/>
-    <hyperlink ref="A170" r:id="rId169"/>
-    <hyperlink ref="A171" r:id="rId170"/>
-    <hyperlink ref="A172" r:id="rId171"/>
-    <hyperlink ref="A173" r:id="rId172"/>
-    <hyperlink ref="A174" r:id="rId173"/>
-    <hyperlink ref="A175" r:id="rId174"/>
-    <hyperlink ref="A176" r:id="rId175"/>
-    <hyperlink ref="A177" r:id="rId176"/>
-    <hyperlink ref="A178" r:id="rId177"/>
-    <hyperlink ref="A179" r:id="rId178"/>
-    <hyperlink ref="A180" r:id="rId179"/>
-    <hyperlink ref="A181" r:id="rId180"/>
-    <hyperlink ref="A182" r:id="rId181"/>
-    <hyperlink ref="A183" r:id="rId182"/>
-    <hyperlink ref="A184" r:id="rId183"/>
-    <hyperlink ref="A185" r:id="rId184"/>
-    <hyperlink ref="A186" r:id="rId185"/>
-    <hyperlink ref="A187" r:id="rId186"/>
-    <hyperlink ref="A188" r:id="rId187"/>
-    <hyperlink ref="A189" r:id="rId188"/>
-    <hyperlink ref="A190" r:id="rId189"/>
-    <hyperlink ref="A191" r:id="rId190"/>
-    <hyperlink ref="A192" r:id="rId191"/>
-    <hyperlink ref="A193" r:id="rId192"/>
-    <hyperlink ref="A194" r:id="rId193"/>
-    <hyperlink ref="A195" r:id="rId194"/>
-    <hyperlink ref="A196" r:id="rId195"/>
-    <hyperlink ref="A197" r:id="rId196"/>
-    <hyperlink ref="A198" r:id="rId197"/>
-    <hyperlink ref="A199" r:id="rId198"/>
+    <hyperlink ref="A2" r:id="rId199"/>
+    <hyperlink ref="A3" r:id="rId200"/>
+    <hyperlink ref="A4" r:id="rId201"/>
+    <hyperlink ref="A5" r:id="rId202"/>
+    <hyperlink ref="A6" r:id="rId203"/>
+    <hyperlink ref="A7" r:id="rId204"/>
+    <hyperlink ref="A8" r:id="rId205"/>
+    <hyperlink ref="A9" r:id="rId206"/>
+    <hyperlink ref="A10" r:id="rId207"/>
+    <hyperlink ref="A11" r:id="rId208"/>
+    <hyperlink ref="A12" r:id="rId209"/>
+    <hyperlink ref="A13" r:id="rId210"/>
+    <hyperlink ref="A14" r:id="rId211"/>
+    <hyperlink ref="A15" r:id="rId212"/>
+    <hyperlink ref="A16" r:id="rId213"/>
+    <hyperlink ref="A17" r:id="rId214"/>
+    <hyperlink ref="A18" r:id="rId215"/>
+    <hyperlink ref="A19" r:id="rId216"/>
+    <hyperlink ref="A20" r:id="rId217"/>
+    <hyperlink ref="A21" r:id="rId218"/>
+    <hyperlink ref="A22" r:id="rId219"/>
+    <hyperlink ref="A23" r:id="rId220"/>
+    <hyperlink ref="A24" r:id="rId221"/>
+    <hyperlink ref="A25" r:id="rId222"/>
+    <hyperlink ref="A26" r:id="rId223"/>
+    <hyperlink ref="A27" r:id="rId224"/>
+    <hyperlink ref="A28" r:id="rId225"/>
+    <hyperlink ref="A29" r:id="rId226"/>
+    <hyperlink ref="A30" r:id="rId227"/>
+    <hyperlink ref="A31" r:id="rId228"/>
+    <hyperlink ref="A32" r:id="rId229"/>
+    <hyperlink ref="A33" r:id="rId230"/>
+    <hyperlink ref="A34" r:id="rId231"/>
+    <hyperlink ref="A35" r:id="rId232"/>
+    <hyperlink ref="A36" r:id="rId233"/>
+    <hyperlink ref="A37" r:id="rId234"/>
+    <hyperlink ref="A38" r:id="rId235"/>
+    <hyperlink ref="A39" r:id="rId236"/>
+    <hyperlink ref="A40" r:id="rId237"/>
+    <hyperlink ref="A41" r:id="rId238"/>
+    <hyperlink ref="A42" r:id="rId239"/>
+    <hyperlink ref="A43" r:id="rId240"/>
+    <hyperlink ref="A44" r:id="rId241"/>
+    <hyperlink ref="A45" r:id="rId242"/>
+    <hyperlink ref="A46" r:id="rId243"/>
+    <hyperlink ref="A47" r:id="rId244"/>
+    <hyperlink ref="A48" r:id="rId245"/>
+    <hyperlink ref="A49" r:id="rId246"/>
+    <hyperlink ref="A50" r:id="rId247"/>
+    <hyperlink ref="A51" r:id="rId248"/>
+    <hyperlink ref="A52" r:id="rId249"/>
+    <hyperlink ref="A53" r:id="rId250"/>
+    <hyperlink ref="A54" r:id="rId251"/>
+    <hyperlink ref="A55" r:id="rId252"/>
+    <hyperlink ref="A56" r:id="rId253"/>
+    <hyperlink ref="A57" r:id="rId254"/>
+    <hyperlink ref="A58" r:id="rId255"/>
+    <hyperlink ref="A59" r:id="rId256"/>
+    <hyperlink ref="A60" r:id="rId257"/>
+    <hyperlink ref="A61" r:id="rId258"/>
+    <hyperlink ref="A62" r:id="rId259"/>
+    <hyperlink ref="A63" r:id="rId260"/>
+    <hyperlink ref="A64" r:id="rId261"/>
+    <hyperlink ref="A65" r:id="rId262"/>
+    <hyperlink ref="A66" r:id="rId263"/>
+    <hyperlink ref="A67" r:id="rId264"/>
+    <hyperlink ref="A68" r:id="rId265"/>
+    <hyperlink ref="A69" r:id="rId266"/>
+    <hyperlink ref="A70" r:id="rId267"/>
+    <hyperlink ref="A71" r:id="rId268"/>
+    <hyperlink ref="A72" r:id="rId269"/>
+    <hyperlink ref="A73" r:id="rId270"/>
+    <hyperlink ref="A74" r:id="rId271"/>
+    <hyperlink ref="A75" r:id="rId272"/>
+    <hyperlink ref="A76" r:id="rId273"/>
+    <hyperlink ref="A77" r:id="rId274"/>
+    <hyperlink ref="A78" r:id="rId275"/>
+    <hyperlink ref="A79" r:id="rId276"/>
+    <hyperlink ref="A80" r:id="rId277"/>
+    <hyperlink ref="A81" r:id="rId278"/>
+    <hyperlink ref="A82" r:id="rId279"/>
+    <hyperlink ref="A83" r:id="rId280"/>
+    <hyperlink ref="A84" r:id="rId281"/>
+    <hyperlink ref="A85" r:id="rId282"/>
+    <hyperlink ref="A86" r:id="rId283"/>
+    <hyperlink ref="A87" r:id="rId284"/>
+    <hyperlink ref="A88" r:id="rId285"/>
+    <hyperlink ref="A89" r:id="rId286"/>
+    <hyperlink ref="A90" r:id="rId287"/>
+    <hyperlink ref="A91" r:id="rId288"/>
+    <hyperlink ref="A92" r:id="rId289"/>
+    <hyperlink ref="A93" r:id="rId290"/>
+    <hyperlink ref="A94" r:id="rId291"/>
+    <hyperlink ref="A95" r:id="rId292"/>
+    <hyperlink ref="A96" r:id="rId293"/>
+    <hyperlink ref="A97" r:id="rId294"/>
+    <hyperlink ref="A98" r:id="rId295"/>
+    <hyperlink ref="A99" r:id="rId296"/>
+    <hyperlink ref="A100" r:id="rId297"/>
+    <hyperlink ref="A101" r:id="rId298"/>
+    <hyperlink ref="A102" r:id="rId299"/>
+    <hyperlink ref="A103" r:id="rId300"/>
+    <hyperlink ref="A104" r:id="rId301"/>
+    <hyperlink ref="A105" r:id="rId302"/>
+    <hyperlink ref="A106" r:id="rId303"/>
+    <hyperlink ref="A107" r:id="rId304"/>
+    <hyperlink ref="A108" r:id="rId305"/>
+    <hyperlink ref="A109" r:id="rId306"/>
+    <hyperlink ref="A110" r:id="rId307"/>
+    <hyperlink ref="A111" r:id="rId308"/>
+    <hyperlink ref="A112" r:id="rId309"/>
+    <hyperlink ref="A113" r:id="rId310"/>
+    <hyperlink ref="A114" r:id="rId311"/>
+    <hyperlink ref="A115" r:id="rId312"/>
+    <hyperlink ref="A116" r:id="rId313"/>
+    <hyperlink ref="A117" r:id="rId314"/>
+    <hyperlink ref="A118" r:id="rId315"/>
+    <hyperlink ref="A119" r:id="rId316"/>
+    <hyperlink ref="A120" r:id="rId317"/>
+    <hyperlink ref="A121" r:id="rId318"/>
+    <hyperlink ref="A122" r:id="rId319"/>
+    <hyperlink ref="A123" r:id="rId320"/>
+    <hyperlink ref="A124" r:id="rId321"/>
+    <hyperlink ref="A125" r:id="rId322"/>
+    <hyperlink ref="A126" r:id="rId323"/>
+    <hyperlink ref="A127" r:id="rId324"/>
+    <hyperlink ref="A128" r:id="rId325"/>
+    <hyperlink ref="A129" r:id="rId326"/>
+    <hyperlink ref="A130" r:id="rId327"/>
+    <hyperlink ref="A131" r:id="rId328"/>
+    <hyperlink ref="A132" r:id="rId329"/>
+    <hyperlink ref="A133" r:id="rId330"/>
+    <hyperlink ref="A134" r:id="rId331"/>
+    <hyperlink ref="A135" r:id="rId332"/>
+    <hyperlink ref="A136" r:id="rId333"/>
+    <hyperlink ref="A137" r:id="rId334"/>
+    <hyperlink ref="A138" r:id="rId335"/>
+    <hyperlink ref="A139" r:id="rId336"/>
+    <hyperlink ref="A140" r:id="rId337"/>
+    <hyperlink ref="A141" r:id="rId338"/>
+    <hyperlink ref="A142" r:id="rId339"/>
+    <hyperlink ref="A143" r:id="rId340"/>
+    <hyperlink ref="A144" r:id="rId341"/>
+    <hyperlink ref="A145" r:id="rId342"/>
+    <hyperlink ref="A146" r:id="rId343"/>
+    <hyperlink ref="A147" r:id="rId344"/>
+    <hyperlink ref="A148" r:id="rId345"/>
+    <hyperlink ref="A149" r:id="rId346"/>
+    <hyperlink ref="A150" r:id="rId347"/>
+    <hyperlink ref="A151" r:id="rId348"/>
+    <hyperlink ref="A152" r:id="rId349"/>
+    <hyperlink ref="A153" r:id="rId350"/>
+    <hyperlink ref="A154" r:id="rId351"/>
+    <hyperlink ref="A155" r:id="rId352"/>
+    <hyperlink ref="A156" r:id="rId353"/>
+    <hyperlink ref="A157" r:id="rId354"/>
+    <hyperlink ref="A158" r:id="rId355"/>
+    <hyperlink ref="A159" r:id="rId356"/>
+    <hyperlink ref="A160" r:id="rId357"/>
+    <hyperlink ref="A161" r:id="rId358"/>
+    <hyperlink ref="A162" r:id="rId359"/>
+    <hyperlink ref="A163" r:id="rId360"/>
+    <hyperlink ref="A164" r:id="rId361"/>
+    <hyperlink ref="A165" r:id="rId362"/>
+    <hyperlink ref="A166" r:id="rId363"/>
+    <hyperlink ref="A167" r:id="rId364"/>
+    <hyperlink ref="A168" r:id="rId365"/>
+    <hyperlink ref="A169" r:id="rId366"/>
+    <hyperlink ref="A170" r:id="rId367"/>
+    <hyperlink ref="A171" r:id="rId368"/>
+    <hyperlink ref="A172" r:id="rId369"/>
+    <hyperlink ref="A173" r:id="rId370"/>
+    <hyperlink ref="A174" r:id="rId371"/>
+    <hyperlink ref="A175" r:id="rId372"/>
+    <hyperlink ref="A176" r:id="rId373"/>
+    <hyperlink ref="A177" r:id="rId374"/>
+    <hyperlink ref="A178" r:id="rId375"/>
+    <hyperlink ref="A179" r:id="rId376"/>
+    <hyperlink ref="A180" r:id="rId377"/>
+    <hyperlink ref="A181" r:id="rId378"/>
+    <hyperlink ref="A182" r:id="rId379"/>
+    <hyperlink ref="A183" r:id="rId380"/>
+    <hyperlink ref="A184" r:id="rId381"/>
+    <hyperlink ref="A185" r:id="rId382"/>
+    <hyperlink ref="A186" r:id="rId383"/>
+    <hyperlink ref="A187" r:id="rId384"/>
+    <hyperlink ref="A188" r:id="rId385"/>
+    <hyperlink ref="A189" r:id="rId386"/>
+    <hyperlink ref="A190" r:id="rId387"/>
+    <hyperlink ref="A191" r:id="rId388"/>
+    <hyperlink ref="A192" r:id="rId389"/>
+    <hyperlink ref="A193" r:id="rId390"/>
+    <hyperlink ref="A194" r:id="rId391"/>
+    <hyperlink ref="A195" r:id="rId392"/>
+    <hyperlink ref="A196" r:id="rId393"/>
+    <hyperlink ref="A197" r:id="rId394"/>
+    <hyperlink ref="A198" r:id="rId395"/>
+    <hyperlink ref="A199" r:id="rId396"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/Audit.xlsx
+++ b/Audit.xlsx
@@ -1311,7 +1311,7 @@
     <xf numFmtId="0" fontId="1"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
       <alignment horizontal="center"/>
@@ -7731,204 +7731,204 @@
   </sheetData>
   <autoFilter ref="A1:J1"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId199"/>
-    <hyperlink ref="A3" r:id="rId200"/>
-    <hyperlink ref="A4" r:id="rId201"/>
-    <hyperlink ref="A5" r:id="rId202"/>
-    <hyperlink ref="A6" r:id="rId203"/>
-    <hyperlink ref="A7" r:id="rId204"/>
-    <hyperlink ref="A8" r:id="rId205"/>
-    <hyperlink ref="A9" r:id="rId206"/>
-    <hyperlink ref="A10" r:id="rId207"/>
-    <hyperlink ref="A11" r:id="rId208"/>
-    <hyperlink ref="A12" r:id="rId209"/>
-    <hyperlink ref="A13" r:id="rId210"/>
-    <hyperlink ref="A14" r:id="rId211"/>
-    <hyperlink ref="A15" r:id="rId212"/>
-    <hyperlink ref="A16" r:id="rId213"/>
-    <hyperlink ref="A17" r:id="rId214"/>
-    <hyperlink ref="A18" r:id="rId215"/>
-    <hyperlink ref="A19" r:id="rId216"/>
-    <hyperlink ref="A20" r:id="rId217"/>
-    <hyperlink ref="A21" r:id="rId218"/>
-    <hyperlink ref="A22" r:id="rId219"/>
-    <hyperlink ref="A23" r:id="rId220"/>
-    <hyperlink ref="A24" r:id="rId221"/>
-    <hyperlink ref="A25" r:id="rId222"/>
-    <hyperlink ref="A26" r:id="rId223"/>
-    <hyperlink ref="A27" r:id="rId224"/>
-    <hyperlink ref="A28" r:id="rId225"/>
-    <hyperlink ref="A29" r:id="rId226"/>
-    <hyperlink ref="A30" r:id="rId227"/>
-    <hyperlink ref="A31" r:id="rId228"/>
-    <hyperlink ref="A32" r:id="rId229"/>
-    <hyperlink ref="A33" r:id="rId230"/>
-    <hyperlink ref="A34" r:id="rId231"/>
-    <hyperlink ref="A35" r:id="rId232"/>
-    <hyperlink ref="A36" r:id="rId233"/>
-    <hyperlink ref="A37" r:id="rId234"/>
-    <hyperlink ref="A38" r:id="rId235"/>
-    <hyperlink ref="A39" r:id="rId236"/>
-    <hyperlink ref="A40" r:id="rId237"/>
-    <hyperlink ref="A41" r:id="rId238"/>
-    <hyperlink ref="A42" r:id="rId239"/>
-    <hyperlink ref="A43" r:id="rId240"/>
-    <hyperlink ref="A44" r:id="rId241"/>
-    <hyperlink ref="A45" r:id="rId242"/>
-    <hyperlink ref="A46" r:id="rId243"/>
-    <hyperlink ref="A47" r:id="rId244"/>
-    <hyperlink ref="A48" r:id="rId245"/>
-    <hyperlink ref="A49" r:id="rId246"/>
-    <hyperlink ref="A50" r:id="rId247"/>
-    <hyperlink ref="A51" r:id="rId248"/>
-    <hyperlink ref="A52" r:id="rId249"/>
-    <hyperlink ref="A53" r:id="rId250"/>
-    <hyperlink ref="A54" r:id="rId251"/>
-    <hyperlink ref="A55" r:id="rId252"/>
-    <hyperlink ref="A56" r:id="rId253"/>
-    <hyperlink ref="A57" r:id="rId254"/>
-    <hyperlink ref="A58" r:id="rId255"/>
-    <hyperlink ref="A59" r:id="rId256"/>
-    <hyperlink ref="A60" r:id="rId257"/>
-    <hyperlink ref="A61" r:id="rId258"/>
-    <hyperlink ref="A62" r:id="rId259"/>
-    <hyperlink ref="A63" r:id="rId260"/>
-    <hyperlink ref="A64" r:id="rId261"/>
-    <hyperlink ref="A65" r:id="rId262"/>
-    <hyperlink ref="A66" r:id="rId263"/>
-    <hyperlink ref="A67" r:id="rId264"/>
-    <hyperlink ref="A68" r:id="rId265"/>
-    <hyperlink ref="A69" r:id="rId266"/>
-    <hyperlink ref="A70" r:id="rId267"/>
-    <hyperlink ref="A71" r:id="rId268"/>
-    <hyperlink ref="A72" r:id="rId269"/>
-    <hyperlink ref="A73" r:id="rId270"/>
-    <hyperlink ref="A74" r:id="rId271"/>
-    <hyperlink ref="A75" r:id="rId272"/>
-    <hyperlink ref="A76" r:id="rId273"/>
-    <hyperlink ref="A77" r:id="rId274"/>
-    <hyperlink ref="A78" r:id="rId275"/>
-    <hyperlink ref="A79" r:id="rId276"/>
-    <hyperlink ref="A80" r:id="rId277"/>
-    <hyperlink ref="A81" r:id="rId278"/>
-    <hyperlink ref="A82" r:id="rId279"/>
-    <hyperlink ref="A83" r:id="rId280"/>
-    <hyperlink ref="A84" r:id="rId281"/>
-    <hyperlink ref="A85" r:id="rId282"/>
-    <hyperlink ref="A86" r:id="rId283"/>
-    <hyperlink ref="A87" r:id="rId284"/>
-    <hyperlink ref="A88" r:id="rId285"/>
-    <hyperlink ref="A89" r:id="rId286"/>
-    <hyperlink ref="A90" r:id="rId287"/>
-    <hyperlink ref="A91" r:id="rId288"/>
-    <hyperlink ref="A92" r:id="rId289"/>
-    <hyperlink ref="A93" r:id="rId290"/>
-    <hyperlink ref="A94" r:id="rId291"/>
-    <hyperlink ref="A95" r:id="rId292"/>
-    <hyperlink ref="A96" r:id="rId293"/>
-    <hyperlink ref="A97" r:id="rId294"/>
-    <hyperlink ref="A98" r:id="rId295"/>
-    <hyperlink ref="A99" r:id="rId296"/>
-    <hyperlink ref="A100" r:id="rId297"/>
-    <hyperlink ref="A101" r:id="rId298"/>
-    <hyperlink ref="A102" r:id="rId299"/>
-    <hyperlink ref="A103" r:id="rId300"/>
-    <hyperlink ref="A104" r:id="rId301"/>
-    <hyperlink ref="A105" r:id="rId302"/>
-    <hyperlink ref="A106" r:id="rId303"/>
-    <hyperlink ref="A107" r:id="rId304"/>
-    <hyperlink ref="A108" r:id="rId305"/>
-    <hyperlink ref="A109" r:id="rId306"/>
-    <hyperlink ref="A110" r:id="rId307"/>
-    <hyperlink ref="A111" r:id="rId308"/>
-    <hyperlink ref="A112" r:id="rId309"/>
-    <hyperlink ref="A113" r:id="rId310"/>
-    <hyperlink ref="A114" r:id="rId311"/>
-    <hyperlink ref="A115" r:id="rId312"/>
-    <hyperlink ref="A116" r:id="rId313"/>
-    <hyperlink ref="A117" r:id="rId314"/>
-    <hyperlink ref="A118" r:id="rId315"/>
-    <hyperlink ref="A119" r:id="rId316"/>
-    <hyperlink ref="A120" r:id="rId317"/>
-    <hyperlink ref="A121" r:id="rId318"/>
-    <hyperlink ref="A122" r:id="rId319"/>
-    <hyperlink ref="A123" r:id="rId320"/>
-    <hyperlink ref="A124" r:id="rId321"/>
-    <hyperlink ref="A125" r:id="rId322"/>
-    <hyperlink ref="A126" r:id="rId323"/>
-    <hyperlink ref="A127" r:id="rId324"/>
-    <hyperlink ref="A128" r:id="rId325"/>
-    <hyperlink ref="A129" r:id="rId326"/>
-    <hyperlink ref="A130" r:id="rId327"/>
-    <hyperlink ref="A131" r:id="rId328"/>
-    <hyperlink ref="A132" r:id="rId329"/>
-    <hyperlink ref="A133" r:id="rId330"/>
-    <hyperlink ref="A134" r:id="rId331"/>
-    <hyperlink ref="A135" r:id="rId332"/>
-    <hyperlink ref="A136" r:id="rId333"/>
-    <hyperlink ref="A137" r:id="rId334"/>
-    <hyperlink ref="A138" r:id="rId335"/>
-    <hyperlink ref="A139" r:id="rId336"/>
-    <hyperlink ref="A140" r:id="rId337"/>
-    <hyperlink ref="A141" r:id="rId338"/>
-    <hyperlink ref="A142" r:id="rId339"/>
-    <hyperlink ref="A143" r:id="rId340"/>
-    <hyperlink ref="A144" r:id="rId341"/>
-    <hyperlink ref="A145" r:id="rId342"/>
-    <hyperlink ref="A146" r:id="rId343"/>
-    <hyperlink ref="A147" r:id="rId344"/>
-    <hyperlink ref="A148" r:id="rId345"/>
-    <hyperlink ref="A149" r:id="rId346"/>
-    <hyperlink ref="A150" r:id="rId347"/>
-    <hyperlink ref="A151" r:id="rId348"/>
-    <hyperlink ref="A152" r:id="rId349"/>
-    <hyperlink ref="A153" r:id="rId350"/>
-    <hyperlink ref="A154" r:id="rId351"/>
-    <hyperlink ref="A155" r:id="rId352"/>
-    <hyperlink ref="A156" r:id="rId353"/>
-    <hyperlink ref="A157" r:id="rId354"/>
-    <hyperlink ref="A158" r:id="rId355"/>
-    <hyperlink ref="A159" r:id="rId356"/>
-    <hyperlink ref="A160" r:id="rId357"/>
-    <hyperlink ref="A161" r:id="rId358"/>
-    <hyperlink ref="A162" r:id="rId359"/>
-    <hyperlink ref="A163" r:id="rId360"/>
-    <hyperlink ref="A164" r:id="rId361"/>
-    <hyperlink ref="A165" r:id="rId362"/>
-    <hyperlink ref="A166" r:id="rId363"/>
-    <hyperlink ref="A167" r:id="rId364"/>
-    <hyperlink ref="A168" r:id="rId365"/>
-    <hyperlink ref="A169" r:id="rId366"/>
-    <hyperlink ref="A170" r:id="rId367"/>
-    <hyperlink ref="A171" r:id="rId368"/>
-    <hyperlink ref="A172" r:id="rId369"/>
-    <hyperlink ref="A173" r:id="rId370"/>
-    <hyperlink ref="A174" r:id="rId371"/>
-    <hyperlink ref="A175" r:id="rId372"/>
-    <hyperlink ref="A176" r:id="rId373"/>
-    <hyperlink ref="A177" r:id="rId374"/>
-    <hyperlink ref="A178" r:id="rId375"/>
-    <hyperlink ref="A179" r:id="rId376"/>
-    <hyperlink ref="A180" r:id="rId377"/>
-    <hyperlink ref="A181" r:id="rId378"/>
-    <hyperlink ref="A182" r:id="rId379"/>
-    <hyperlink ref="A183" r:id="rId380"/>
-    <hyperlink ref="A184" r:id="rId381"/>
-    <hyperlink ref="A185" r:id="rId382"/>
-    <hyperlink ref="A186" r:id="rId383"/>
-    <hyperlink ref="A187" r:id="rId384"/>
-    <hyperlink ref="A188" r:id="rId385"/>
-    <hyperlink ref="A189" r:id="rId386"/>
-    <hyperlink ref="A190" r:id="rId387"/>
-    <hyperlink ref="A191" r:id="rId388"/>
-    <hyperlink ref="A192" r:id="rId389"/>
-    <hyperlink ref="A193" r:id="rId390"/>
-    <hyperlink ref="A194" r:id="rId391"/>
-    <hyperlink ref="A195" r:id="rId392"/>
-    <hyperlink ref="A196" r:id="rId393"/>
-    <hyperlink ref="A197" r:id="rId394"/>
-    <hyperlink ref="A198" r:id="rId395"/>
-    <hyperlink ref="A199" r:id="rId396"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="A89" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="A91" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="A93" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="A95" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="A97" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="A99" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="A101" r:id="rId100"/>
+    <hyperlink ref="A102" r:id="rId101"/>
+    <hyperlink ref="A103" r:id="rId102"/>
+    <hyperlink ref="A104" r:id="rId103"/>
+    <hyperlink ref="A105" r:id="rId104"/>
+    <hyperlink ref="A106" r:id="rId105"/>
+    <hyperlink ref="A107" r:id="rId106"/>
+    <hyperlink ref="A108" r:id="rId107"/>
+    <hyperlink ref="A109" r:id="rId108"/>
+    <hyperlink ref="A110" r:id="rId109"/>
+    <hyperlink ref="A111" r:id="rId110"/>
+    <hyperlink ref="A112" r:id="rId111"/>
+    <hyperlink ref="A113" r:id="rId112"/>
+    <hyperlink ref="A114" r:id="rId113"/>
+    <hyperlink ref="A115" r:id="rId114"/>
+    <hyperlink ref="A116" r:id="rId115"/>
+    <hyperlink ref="A117" r:id="rId116"/>
+    <hyperlink ref="A118" r:id="rId117"/>
+    <hyperlink ref="A119" r:id="rId118"/>
+    <hyperlink ref="A120" r:id="rId119"/>
+    <hyperlink ref="A121" r:id="rId120"/>
+    <hyperlink ref="A122" r:id="rId121"/>
+    <hyperlink ref="A123" r:id="rId122"/>
+    <hyperlink ref="A124" r:id="rId123"/>
+    <hyperlink ref="A125" r:id="rId124"/>
+    <hyperlink ref="A126" r:id="rId125"/>
+    <hyperlink ref="A127" r:id="rId126"/>
+    <hyperlink ref="A128" r:id="rId127"/>
+    <hyperlink ref="A129" r:id="rId128"/>
+    <hyperlink ref="A130" r:id="rId129"/>
+    <hyperlink ref="A131" r:id="rId130"/>
+    <hyperlink ref="A132" r:id="rId131"/>
+    <hyperlink ref="A133" r:id="rId132"/>
+    <hyperlink ref="A134" r:id="rId133"/>
+    <hyperlink ref="A135" r:id="rId134"/>
+    <hyperlink ref="A136" r:id="rId135"/>
+    <hyperlink ref="A137" r:id="rId136"/>
+    <hyperlink ref="A138" r:id="rId137"/>
+    <hyperlink ref="A139" r:id="rId138"/>
+    <hyperlink ref="A140" r:id="rId139"/>
+    <hyperlink ref="A141" r:id="rId140"/>
+    <hyperlink ref="A142" r:id="rId141"/>
+    <hyperlink ref="A143" r:id="rId142"/>
+    <hyperlink ref="A144" r:id="rId143"/>
+    <hyperlink ref="A145" r:id="rId144"/>
+    <hyperlink ref="A146" r:id="rId145"/>
+    <hyperlink ref="A147" r:id="rId146"/>
+    <hyperlink ref="A148" r:id="rId147"/>
+    <hyperlink ref="A149" r:id="rId148"/>
+    <hyperlink ref="A150" r:id="rId149"/>
+    <hyperlink ref="A151" r:id="rId150"/>
+    <hyperlink ref="A152" r:id="rId151"/>
+    <hyperlink ref="A153" r:id="rId152"/>
+    <hyperlink ref="A154" r:id="rId153"/>
+    <hyperlink ref="A155" r:id="rId154"/>
+    <hyperlink ref="A156" r:id="rId155"/>
+    <hyperlink ref="A157" r:id="rId156"/>
+    <hyperlink ref="A158" r:id="rId157"/>
+    <hyperlink ref="A159" r:id="rId158"/>
+    <hyperlink ref="A160" r:id="rId159"/>
+    <hyperlink ref="A161" r:id="rId160"/>
+    <hyperlink ref="A162" r:id="rId161"/>
+    <hyperlink ref="A163" r:id="rId162"/>
+    <hyperlink ref="A164" r:id="rId163"/>
+    <hyperlink ref="A165" r:id="rId164"/>
+    <hyperlink ref="A166" r:id="rId165"/>
+    <hyperlink ref="A167" r:id="rId166"/>
+    <hyperlink ref="A168" r:id="rId167"/>
+    <hyperlink ref="A169" r:id="rId168"/>
+    <hyperlink ref="A170" r:id="rId169"/>
+    <hyperlink ref="A171" r:id="rId170"/>
+    <hyperlink ref="A172" r:id="rId171"/>
+    <hyperlink ref="A173" r:id="rId172"/>
+    <hyperlink ref="A174" r:id="rId173"/>
+    <hyperlink ref="A175" r:id="rId174"/>
+    <hyperlink ref="A176" r:id="rId175"/>
+    <hyperlink ref="A177" r:id="rId176"/>
+    <hyperlink ref="A178" r:id="rId177"/>
+    <hyperlink ref="A179" r:id="rId178"/>
+    <hyperlink ref="A180" r:id="rId179"/>
+    <hyperlink ref="A181" r:id="rId180"/>
+    <hyperlink ref="A182" r:id="rId181"/>
+    <hyperlink ref="A183" r:id="rId182"/>
+    <hyperlink ref="A184" r:id="rId183"/>
+    <hyperlink ref="A185" r:id="rId184"/>
+    <hyperlink ref="A186" r:id="rId185"/>
+    <hyperlink ref="A187" r:id="rId186"/>
+    <hyperlink ref="A188" r:id="rId187"/>
+    <hyperlink ref="A189" r:id="rId188"/>
+    <hyperlink ref="A190" r:id="rId189"/>
+    <hyperlink ref="A191" r:id="rId190"/>
+    <hyperlink ref="A192" r:id="rId191"/>
+    <hyperlink ref="A193" r:id="rId192"/>
+    <hyperlink ref="A194" r:id="rId193"/>
+    <hyperlink ref="A195" r:id="rId194"/>
+    <hyperlink ref="A196" r:id="rId195"/>
+    <hyperlink ref="A197" r:id="rId196"/>
+    <hyperlink ref="A198" r:id="rId197"/>
+    <hyperlink ref="A199" r:id="rId198"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
